--- a/test.xlsx
+++ b/test.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621" iterateDelta="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>3</t>
   </si>
@@ -647,24 +642,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -679,15 +674,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -958,7 +953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -966,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C29"/>
+  <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -978,7 +973,7 @@
     <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -986,228 +981,148 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>8430820882</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <f>COUNTIF($B$2:$B$20,B2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">COUNTIF($B$2:$B$20,B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>8443200075</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>8441210850</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>8430820882</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>8530210475</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>8430820882</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>8441210841</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>8430820882</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>8531030516</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
-        <v>8430820882</v>
+        <v>8531220014</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
-        <v>8531220014</v>
+        <v>8541210052</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="1">
-        <v>8541210052</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B21" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B24" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B25" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="1">
-        <v>8430820882</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
